--- a/HTD_Sprint/test_data/package.xlsx
+++ b/HTD_Sprint/test_data/package.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anu\PycharmProjects\HTD_Sprint\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AA6260-16BB-4F9D-A1A1-3F6C6AF89736}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED8A0C2-FBF9-46E0-A725-523BD3D12BAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{5BBB6443-FEB8-46D4-9567-4951A10570B6}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="72">
   <si>
     <t>logical_name</t>
   </si>
@@ -208,37 +208,40 @@
     <t>mgroad</t>
   </si>
   <si>
-    <t>patage</t>
-  </si>
-  <si>
-    <t>akvqz</t>
-  </si>
-  <si>
-    <t>bc</t>
-  </si>
-  <si>
     <t>anu</t>
   </si>
   <si>
     <t>jcroad</t>
   </si>
   <si>
-    <t>ef</t>
-  </si>
-  <si>
     <t>suvarna</t>
   </si>
   <si>
     <t>jproad</t>
   </si>
   <si>
-    <t>cvb</t>
-  </si>
-  <si>
     <t>tdyd</t>
   </si>
   <si>
     <t>gdf</t>
+  </si>
+  <si>
+    <t>pat_age</t>
+  </si>
+  <si>
+    <t>aravindd</t>
+  </si>
+  <si>
+    <t>rohakk</t>
+  </si>
+  <si>
+    <t>bhuvann</t>
+  </si>
+  <si>
+    <t>suvan</t>
+  </si>
+  <si>
+    <t>vijayyy</t>
   </si>
 </sst>
 </file>
@@ -928,7 +931,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -945,7 +948,7 @@
         <v>53</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>54</v>
@@ -962,13 +965,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
-        <v>8904245127</v>
+        <v>9353781139</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C2" s="4">
-        <v>44</v>
+        <v>-3</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>55</v>
@@ -984,17 +987,17 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>9113676419</v>
+      <c r="A3" s="4">
+        <v>9353781139</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C3">
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E3">
         <v>400001</v>
@@ -1003,21 +1006,21 @@
         <v>45</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>9113676419</v>
+      <c r="A4" s="4">
+        <v>9353781139</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E4">
         <v>400001</v>
@@ -1026,21 +1029,21 @@
         <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>911367641</v>
+      <c r="A5" s="4">
+        <v>935378119</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5">
         <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E5">
         <v>400001</v>
@@ -1053,17 +1056,17 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>9113676419</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
+      <c r="A6" s="4">
+        <v>9353781139</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
       </c>
       <c r="C6">
         <v>-6</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E6">
         <v>567889</v>

--- a/HTD_Sprint/test_data/package.xlsx
+++ b/HTD_Sprint/test_data/package.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anu\PycharmProjects\HTD_Sprint\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED8A0C2-FBF9-46E0-A725-523BD3D12BAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C27E47-184A-474E-B73F-3C7FC15A630E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{5BBB6443-FEB8-46D4-9567-4951A10570B6}"/>
   </bookViews>
@@ -229,19 +229,19 @@
     <t>pat_age</t>
   </si>
   <si>
-    <t>aravindd</t>
-  </si>
-  <si>
-    <t>rohakk</t>
-  </si>
-  <si>
-    <t>bhuvann</t>
-  </si>
-  <si>
-    <t>suvan</t>
-  </si>
-  <si>
-    <t>vijayyy</t>
+    <t>bhuvan</t>
+  </si>
+  <si>
+    <t>givith</t>
+  </si>
+  <si>
+    <t>ninad</t>
+  </si>
+  <si>
+    <t>Shreyak</t>
+  </si>
+  <si>
+    <t>MANVIT</t>
   </si>
 </sst>
 </file>
@@ -931,7 +931,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -965,13 +965,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
-        <v>9353781139</v>
+        <v>9113676419</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="4">
-        <v>-3</v>
+        <v>58</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>55</v>
@@ -988,13 +988,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
-        <v>9353781139</v>
+        <v>9113676419</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
         <v>60</v>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
-        <v>9353781139</v>
+        <v>8970154665</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1034,10 +1034,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>935378119</v>
+        <v>897015466</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5">
         <v>34</v>
@@ -1057,10 +1057,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>9353781139</v>
+        <v>8970154665</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C6">
         <v>-6</v>
